--- a/src/assets/templates/basic_2.xlsx
+++ b/src/assets/templates/basic_2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +74,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,9 +161,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -165,36 +170,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,53 +484,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="53.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:3" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -532,9 +545,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="2" max="16383" man="1"/>
-    <brk id="5" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>